--- a/folder_with_orders/orders_five_post.xlsx
+++ b/folder_with_orders/orders_five_post.xlsx
@@ -134,7 +134,7 @@
     <t xml:space="preserve">FivePost</t>
   </si>
   <si>
-    <t xml:space="preserve">0014e8fe-1c2d-4429-b115-c9064ce54c30</t>
+    <t xml:space="preserve">90bf97c9-8fea-4cc9-8437-caf2fe0ada0b</t>
   </si>
   <si>
     <t xml:space="preserve">Тест</t>
@@ -337,7 +337,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -487,11 +487,11 @@
   <dimension ref="A1:AN940"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,7 +627,7 @@
     <row r="2" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>9046828</v>
+        <v>2354498</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
@@ -711,7 +711,7 @@
     <row r="3" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>5136000</v>
+        <v>5725053</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="12" t="s">
